--- a/data/campeonato_4_1.xlsx
+++ b/data/campeonato_4_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -59,34 +59,37 @@
     <t>1/1/2022</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>0:1</t>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>2:7</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>1:2</t>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>4:2</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -466,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -483,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -500,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -560,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -579,10 +582,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -593,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -615,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -629,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -659,13 +662,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -678,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -692,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -717,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -731,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/campeonato_4_1.xlsx
+++ b/data/campeonato_4_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -59,37 +59,40 @@
     <t>1/1/2022</t>
   </si>
   <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>2:4</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1:4</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>2:7</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>5:1</t>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>3:4</t>
   </si>
   <si>
     <t>3:1</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>4:2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -469,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -486,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -503,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -582,10 +585,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -596,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -621,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -635,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -654,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -668,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -687,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -701,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -720,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -734,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/campeonato_4_1.xlsx
+++ b/data/campeonato_4_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -59,40 +59,37 @@
     <t>1/1/2022</t>
   </si>
   <si>
+    <t>8:4</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>0:2</t>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>1:4</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>3:1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -472,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -489,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -506,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -599,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -665,10 +662,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -690,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -704,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -723,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -737,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
